--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2269.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2269.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.141381140370571</v>
+        <v>1.219740271568298</v>
       </c>
       <c r="B1">
-        <v>2.420842753636473</v>
+        <v>2.687123775482178</v>
       </c>
       <c r="C1">
-        <v>5.418523170159009</v>
+        <v>4.3643798828125</v>
       </c>
       <c r="D1">
-        <v>2.886266688710847</v>
+        <v>2.145384311676025</v>
       </c>
       <c r="E1">
-        <v>1.232302747925099</v>
+        <v>1.16199791431427</v>
       </c>
     </row>
   </sheetData>
